--- a/excel/SaldoProdPF.xlsx
+++ b/excel/SaldoProdPF.xlsx
@@ -2851,16 +2851,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>58406601</v>
+        <v>59122601</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SUD-2540</t>
+          <t>ACCCR-BR-04C01</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>T BONE (PORCIONADO 0,9KG CONG CP</t>
+          <t>ACEM C/OSSO CG CARA PRETA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2869,17 +2869,17 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="F38" t="n">
-        <v>0.6919999999999999</v>
+        <v>48.48</v>
       </c>
       <c r="G38" t="n">
-        <v>0.72</v>
+        <v>50.28</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30/12/2022</t>
+          <t xml:space="preserve"> 20/08/2023</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -2888,18 +2888,18 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Data:08/02/2021 NFE:000066029-</t>
+          <t>Data:01/10/2021 NFE:000070015-</t>
         </is>
       </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>#2463# FORT 1054</t>
+          <t>#2769# CARA 1443</t>
         </is>
       </c>
       <c r="O38" t="n">
@@ -2919,16 +2919,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>59122601</v>
+        <v>59122602</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ACCCR-BR-04C01</t>
+          <t>ATICR-BR-04C01</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ACEM C/OSSO CG CARA PRETA</t>
+          <t>ASSADO DE TIRA BOV CG CARA PRETA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2937,17 +2937,17 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>48.48</v>
+        <v>0.672</v>
       </c>
       <c r="G39" t="n">
-        <v>50.28</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 20/08/2023</t>
+          <t xml:space="preserve"> 11/06/2023</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -2963,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>59122602</v>
+        <v>59416102</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3005,17 +3005,17 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F40" t="n">
-        <v>0.672</v>
+        <v>25.442</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6899999999999999</v>
+        <v>26</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11/06/2023</t>
+          <t xml:space="preserve"> 14/08/2023</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3024,7 +3024,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Data:01/10/2021 NFE:000070015-</t>
+          <t>Data:28/12/2021 NFE:000071842-</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -3033,11 +3033,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>#2769# CARA 1443</t>
-        </is>
-      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="O40" t="n">
         <v>0</v>
       </c>
@@ -3055,7 +3051,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>59416102</v>
+        <v>59492401</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3073,13 +3069,13 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="F41" t="n">
-        <v>25.442</v>
+        <v>82.166</v>
       </c>
       <c r="G41" t="n">
-        <v>26</v>
+        <v>83.93000000000001</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -3092,14 +3088,14 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Data:28/12/2021 NFE:000071842-</t>
+          <t>Data:19/01/2022 NFE:000072218-</t>
         </is>
       </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="n">
@@ -3119,16 +3115,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>59492401</v>
+        <v>60307001</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ATICR-BR-04C01</t>
+          <t>ATIPD-UY-07C01</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ASSADO DE TIRA BOV CG CARA PRETA</t>
+          <t>ASSADO DE TIRA BOV CG VILA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3137,17 +3133,17 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="F42" t="n">
-        <v>82.166</v>
+        <v>6.696</v>
       </c>
       <c r="G42" t="n">
-        <v>83.93000000000001</v>
+        <v>6.78</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14/08/2023</t>
+          <t xml:space="preserve"> 27/07/2024</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3156,14 +3152,14 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Data:19/01/2022 NFE:000072218-</t>
+          <t>Data:10/10/2022 NFE:000077127-</t>
         </is>
       </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="n">
@@ -3183,7 +3179,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>60307001</v>
+        <v>60385101</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3201,13 +3197,13 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F43" t="n">
-        <v>6.696</v>
+        <v>77.04000000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>6.78</v>
+        <v>77.88</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -3220,11 +3216,11 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Data:10/10/2022 NFE:000077127-</t>
+          <t>Data:04/11/2022 NFE:000077744-</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
@@ -3247,16 +3243,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>60385101</v>
+        <v>60181101</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ATIPD-UY-07C01</t>
+          <t>BAR19-BR-04C01</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ASSADO DE TIRA BOV CG VILA</t>
+          <t>BARRIGA SUINA CONG - 1953</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3265,17 +3261,17 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F44" t="n">
-        <v>77.04000000000001</v>
+        <v>20.41</v>
       </c>
       <c r="G44" t="n">
-        <v>77.88</v>
+        <v>20.61</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 27/07/2024</t>
+          <t xml:space="preserve"> 10/12/2022</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3284,11 +3280,11 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Data:04/11/2022 NFE:000077744-</t>
+          <t>Data:30/08/2022 NFE:000076313-</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
@@ -3311,16 +3307,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>60181101</v>
+        <v>60377201</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BAR19-BR-04C01</t>
+          <t>BBMFR-BR-05C01</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BARRIGA SUINA CONG - 1953</t>
+          <t xml:space="preserve">BOMBOM DA ALCATRA BOV CG NV </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3329,17 +3325,17 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F45" t="n">
-        <v>20.41</v>
+        <v>55.565</v>
       </c>
       <c r="G45" t="n">
-        <v>20.61</v>
+        <v>56.28</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10/12/2022</t>
+          <t xml:space="preserve"> 07/06/2024</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3348,14 +3344,14 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Data:30/08/2022 NFE:000076313-</t>
+          <t>Data:01/11/2022 NFE:000077636-</t>
         </is>
       </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="n">
@@ -3375,16 +3371,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>60377201</v>
+        <v>59492501</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BBMFR-BR-05C01</t>
+          <t>CARDC-UY-06C01</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">BOMBOM DA ALCATRA BOV CG NV </t>
+          <t>CARRE FRANCES OVI CG 8/20 VP CORD CHEFE</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3393,17 +3389,17 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="F46" t="n">
-        <v>55.565</v>
+        <v>193.77</v>
       </c>
       <c r="G46" t="n">
-        <v>56.28</v>
+        <v>195.574</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 07/06/2024</t>
+          <t xml:space="preserve"> 18/10/2023</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3412,14 +3408,14 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Data:01/11/2022 NFE:000077636-</t>
+          <t>Data:19/01/2022 NFE:000072154-</t>
         </is>
       </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="n">
@@ -3439,7 +3435,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>59492501</v>
+        <v>59392503</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3457,33 +3453,33 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>164</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>193.77</v>
+        <v>2.18</v>
       </c>
       <c r="G47" t="n">
-        <v>195.574</v>
+        <v>2.202</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 18/10/2023</t>
+          <t xml:space="preserve"> 01/11/2023</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Data:19/01/2022 NFE:000072154-</t>
+          <t>Data:21/12/2021 NFE:000071791-</t>
         </is>
       </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="n">
@@ -3503,16 +3499,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>59392503</v>
+        <v>60355601</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CARDC-UY-06C01</t>
+          <t>CFRPO-AR-01C01</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CARRE FRANCES OVI CG 8/20 VP CORD CHEFE</t>
+          <t>CORACAO DE FRANGO POLLOLIN CG 10X1 KG</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3521,26 +3517,26 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F48" t="n">
-        <v>2.18</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>2.202</v>
+        <v>10.1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/11/2023</t>
+          <t xml:space="preserve"> 10/11/2023</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Data:21/12/2021 NFE:000071791-</t>
+          <t>Data:25/10/2022 NFE:000077475-</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -3567,16 +3563,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>60355601</v>
+        <v>59122605</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CFRPO-AR-01C01</t>
+          <t>COSPD-UY-07C01</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CORACAO DE FRANGO POLLOLIN CG 10X1 KG</t>
+          <t>COSTELA BOV DIANTEIRO JANELA CG. VILA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3585,17 +3581,17 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>1.525</v>
       </c>
       <c r="G49" t="n">
-        <v>10.1</v>
+        <v>1.53</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10/11/2023</t>
+          <t xml:space="preserve"> 16/07/2023</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -3604,7 +3600,7 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Data:25/10/2022 NFE:000077475-</t>
+          <t>Data:01/10/2021 NFE:000070015-</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -3613,7 +3609,11 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>#2761# JBSS 1277</t>
+        </is>
+      </c>
       <c r="O49" t="n">
         <v>0</v>
       </c>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>59122605</v>
+        <v>59492001</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -3649,17 +3649,17 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="F50" t="n">
-        <v>1.525</v>
+        <v>156.61</v>
       </c>
       <c r="G50" t="n">
-        <v>1.53</v>
+        <v>157.04</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 16/07/2023</t>
+          <t xml:space="preserve"> 19/10/2023</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -3668,20 +3668,16 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Data:01/10/2021 NFE:000070015-</t>
+          <t>Data:19/01/2022 NFE:000072171-</t>
         </is>
       </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>#2761# JBSS 1277</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
       <c r="O50" t="n">
         <v>0</v>
       </c>
@@ -3699,16 +3695,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>59492001</v>
+        <v>59237801</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>COSPD-UY-07C01</t>
+          <t>FLIFE-BR-04C01</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>COSTELA BOV DIANTEIRO JANELA CG. VILA</t>
+          <t>FILE DE LINGUADO S/PL 0,5KG CG FRESCATTO</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3717,17 +3713,17 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="F51" t="n">
-        <v>156.61</v>
+        <v>27</v>
       </c>
       <c r="G51" t="n">
-        <v>157.04</v>
+        <v>29.16</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 19/10/2023</t>
+          <t xml:space="preserve"> 01/07/2023</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -3736,16 +3732,20 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Data:19/01/2022 NFE:000072171-</t>
+          <t>Data:08/11/2021 NFE:000070694-</t>
         </is>
       </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>#2758# FRES 1527</t>
+        </is>
+      </c>
       <c r="O51" t="n">
         <v>0</v>
       </c>
@@ -3763,16 +3763,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>59237801</v>
+        <v>60070001</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>FLIFE-BR-04C01</t>
+          <t>FMIBC-BR-05C01</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>FILE DE LINGUADO S/PL 0,5KG CG FRESCATTO</t>
+          <t>FILE MIGNON BOV CG 1,3-1,8 KG -BOA CARNE</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3781,17 +3781,17 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="F52" t="n">
-        <v>27</v>
+        <v>45.56</v>
       </c>
       <c r="G52" t="n">
-        <v>29.16</v>
+        <v>45.81</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/07/2023</t>
+          <t xml:space="preserve"> 21/05/2023</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -3800,7 +3800,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Data:08/11/2021 NFE:000070694-</t>
+          <t>Data:25/07/2022 NFE:000075690-</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -3809,11 +3809,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>#2758# FRES 1527</t>
-        </is>
-      </c>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="n">
         <v>0</v>
       </c>
@@ -3831,7 +3827,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>60070001</v>
+        <v>60099101</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3849,17 +3845,17 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F53" t="n">
-        <v>45.56</v>
+        <v>28</v>
       </c>
       <c r="G53" t="n">
-        <v>45.81</v>
+        <v>28.15</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 21/05/2023</t>
+          <t xml:space="preserve"> 11/07/2023</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -3868,7 +3864,7 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Data:25/07/2022 NFE:000075690-</t>
+          <t>Data:03/08/2022 NFE:000075848-</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -3895,16 +3891,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>60099101</v>
+        <v>59492801</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>FMIBC-BR-05C01</t>
+          <t>FRDCR-BR-04C01</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>FILE MIGNON BOV CG 1,3-1,8 KG -BOA CARNE</t>
+          <t>FRALDA DO DIAFRAGMA BOV CG CARA PRETA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3913,17 +3909,17 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="F54" t="n">
-        <v>28</v>
+        <v>97.41</v>
       </c>
       <c r="G54" t="n">
-        <v>28.15</v>
+        <v>98.48999999999999</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11/07/2023</t>
+          <t xml:space="preserve"> 05/01/2024</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -3932,14 +3928,14 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Data:03/08/2022 NFE:000075848-</t>
+          <t>Data:19/01/2022 NFE:000072218-</t>
         </is>
       </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="n">
@@ -3959,7 +3955,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>59492801</v>
+        <v>59868101</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3977,17 +3973,17 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="F55" t="n">
-        <v>97.41</v>
+        <v>13.66</v>
       </c>
       <c r="G55" t="n">
-        <v>98.48999999999999</v>
+        <v>13.85</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05/01/2024</t>
+          <t xml:space="preserve"> 16/03/2024</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -3996,14 +3992,14 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Data:19/01/2022 NFE:000072218-</t>
+          <t>Data:12/05/2022 NFE:000074244-</t>
         </is>
       </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
       <c r="M55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="n">
@@ -4023,16 +4019,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>59868101</v>
+        <v>59478901</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>FRDCR-BR-04C01</t>
+          <t>FRSIF-UY-03C01</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>FRALDA DO DIAFRAGMA BOV CG CARA PRETA</t>
+          <t>FRALDA BOV S/ GORD CG - IF</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4041,17 +4037,17 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="F56" t="n">
-        <v>13.66</v>
+        <v>116.243</v>
       </c>
       <c r="G56" t="n">
-        <v>13.85</v>
+        <v>118.05</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 16/03/2024</t>
+          <t xml:space="preserve"> 05/08/2023</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4060,14 +4056,14 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Data:12/05/2022 NFE:000074244-</t>
+          <t>Data:17/01/2022 NFE:000072123-</t>
         </is>
       </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="n">
@@ -4087,16 +4083,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>59478901</v>
+        <v>59122609</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>FRSIF-UY-03C01</t>
+          <t>FRSPD-UY-07C01</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>FRALDA BOV S/ GORD CG - IF</t>
+          <t>FRALDA BOV S/GORD CG VILA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -4105,17 +4101,17 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>139</v>
+        <v>2</v>
       </c>
       <c r="F57" t="n">
-        <v>116.243</v>
+        <v>2.8</v>
       </c>
       <c r="G57" t="n">
-        <v>118.05</v>
+        <v>2.81</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05/08/2023</t>
+          <t xml:space="preserve"> 16/07/2023</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4124,16 +4120,20 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Data:17/01/2022 NFE:000072123-</t>
+          <t>Data:01/10/2021 NFE:000070015-</t>
         </is>
       </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>#2761# JBSS 1277</t>
+        </is>
+      </c>
       <c r="O57" t="n">
         <v>0</v>
       </c>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>59122609</v>
+        <v>59491401</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4169,17 +4169,17 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="F58" t="n">
-        <v>2.8</v>
+        <v>164.065</v>
       </c>
       <c r="G58" t="n">
-        <v>2.81</v>
+        <v>164.8</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 16/07/2023</t>
+          <t xml:space="preserve"> 03/12/2023</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4188,20 +4188,16 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Data:01/10/2021 NFE:000070015-</t>
+          <t>Data:19/01/2022 NFE:000072218-</t>
         </is>
       </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>#2761# JBSS 1277</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N58" t="inlineStr"/>
       <c r="O58" t="n">
         <v>0</v>
       </c>
@@ -4219,16 +4215,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>59491401</v>
+        <v>60308001</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>FRSPD-UY-07C01</t>
+          <t>FRSPD-UY-07C02</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>FRALDA BOV S/GORD CG VILA</t>
+          <t>FRALDA BOV S/ GORD PORC CG VILA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4237,17 +4233,17 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="F59" t="n">
-        <v>164.065</v>
+        <v>12.314</v>
       </c>
       <c r="G59" t="n">
-        <v>164.8</v>
+        <v>12.86</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/12/2023</t>
+          <t xml:space="preserve"> 01/09/2024</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4256,14 +4252,14 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Data:19/01/2022 NFE:000072218-</t>
+          <t>Data:10/10/2022 NFE:000077124-</t>
         </is>
       </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
       <c r="M59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="n">
@@ -4283,7 +4279,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>60308001</v>
+        <v>60385001</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4301,13 +4297,13 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="F60" t="n">
-        <v>12.314</v>
+        <v>73.28</v>
       </c>
       <c r="G60" t="n">
-        <v>12.86</v>
+        <v>76.22</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -4320,14 +4316,14 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Data:10/10/2022 NFE:000077124-</t>
+          <t>Data:04/11/2022 NFE:000077707-</t>
         </is>
       </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="n">
@@ -4347,16 +4343,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>60385001</v>
+        <v>59485301</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>FRSPD-UY-07C02</t>
+          <t>LINSB-UY-03C03</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>FRALDA BOV S/ GORD PORC CG VILA</t>
+          <t>LINGUICA MISTA C/QJO CHEDDAR BARB CG SAR</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4365,17 +4361,17 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
-        <v>73.28</v>
+        <v>0.6</v>
       </c>
       <c r="G61" t="n">
-        <v>76.22</v>
+        <v>0.6</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/09/2024</t>
+          <t xml:space="preserve"> 16/11/2022</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -4384,14 +4380,14 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Data:04/11/2022 NFE:000077707-</t>
+          <t>Data:18/01/2022 NFE:000072154-</t>
         </is>
       </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="n">
@@ -4411,16 +4407,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>59485301</v>
+        <v>60069801</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>LINSB-UY-03C03</t>
+          <t>MACBB-AR-01C01</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>LINGUICA MISTA C/QJO CHEDDAR BARB CG SAR</t>
+          <t>MIOLO DE ACEM BOV. CG. BLACK BULL</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4429,17 +4425,17 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="G62" t="n">
-        <v>0.6</v>
+        <v>8.82</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 16/11/2022</t>
+          <t xml:space="preserve"> 01/08/2023</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -4448,7 +4444,7 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Data:18/01/2022 NFE:000072154-</t>
+          <t>Data:25/07/2022 NFE:000075695-</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -4475,16 +4471,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>60069801</v>
+        <v>59490901</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MACBB-AR-01C01</t>
+          <t>MALBB-AR-01C01</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MIOLO DE ACEM BOV. CG. BLACK BULL</t>
+          <t>MIOLO DE ALCATRA BOV. CG. BLACK BULL</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -4493,17 +4489,17 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F63" t="n">
-        <v>8.710000000000001</v>
+        <v>72.83</v>
       </c>
       <c r="G63" t="n">
-        <v>8.82</v>
+        <v>73.19</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/08/2023</t>
+          <t xml:space="preserve"> 15/05/2023</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -4512,7 +4508,7 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Data:25/07/2022 NFE:000075695-</t>
+          <t>Data:19/01/2022 NFE:000072199-</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -4539,16 +4535,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>59490901</v>
+        <v>59827801</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MALBB-AR-01C01</t>
+          <t>MAMLM-UY-03C02</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>MIOLO DE ALCATRA BOV. CG. BLACK BULL</t>
+          <t>MAMINHA BOV ANG CG LAS MORAS</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -4557,17 +4553,17 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F64" t="n">
-        <v>72.83</v>
+        <v>50.62</v>
       </c>
       <c r="G64" t="n">
-        <v>73.19</v>
+        <v>51.16</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15/05/2023</t>
+          <t xml:space="preserve"> 25/03/2024</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -4576,7 +4572,7 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Data:19/01/2022 NFE:000072199-</t>
+          <t>Data:29/04/2022 NFE:000073954-</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -4603,7 +4599,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>59827801</v>
+        <v>59827901</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -4621,17 +4617,17 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="F65" t="n">
-        <v>50.62</v>
+        <v>24.564</v>
       </c>
       <c r="G65" t="n">
-        <v>51.16</v>
+        <v>24.828</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25/03/2024</t>
+          <t xml:space="preserve"> 28/03/2024</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -4640,7 +4636,7 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Data:29/04/2022 NFE:000073954-</t>
+          <t>Data:29/04/2022 NFE:000073955-</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -4667,16 +4663,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>59827901</v>
+        <v>59880801</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MAMLM-UY-03C02</t>
+          <t>MAMPI-AR-01C01</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MAMINHA BOV ANG CG LAS MORAS</t>
+          <t>MAMINHA BOV CONG PICO</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4685,17 +4681,17 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F66" t="n">
-        <v>24.564</v>
+        <v>9.935</v>
       </c>
       <c r="G66" t="n">
-        <v>24.828</v>
+        <v>9.99</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28/03/2024</t>
+          <t xml:space="preserve"> 08/08/2023</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -4704,7 +4700,7 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Data:29/04/2022 NFE:000073955-</t>
+          <t>Data:17/05/2022 NFE:000074371-</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -4731,16 +4727,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>59880801</v>
+        <v>59416107</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MAMPI-AR-01C01</t>
+          <t>PLTDC-UY-06C01</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MAMINHA BOV CONG PICO</t>
+          <t>PALETA OVI CONG -1,8VP CORD CHEFE</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4749,17 +4745,17 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
-        <v>9.935</v>
+        <v>3.8</v>
       </c>
       <c r="G67" t="n">
-        <v>9.99</v>
+        <v>3.84</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 08/08/2023</t>
+          <t xml:space="preserve"> 28/10/2023</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -4768,11 +4764,11 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Data:17/05/2022 NFE:000074371-</t>
+          <t>Data:28/12/2021 NFE:000071842-</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M67" t="n">
         <v>1</v>
@@ -4795,7 +4791,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>59416107</v>
+        <v>59492301</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -4813,13 +4809,13 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="F68" t="n">
-        <v>3.8</v>
+        <v>196.6</v>
       </c>
       <c r="G68" t="n">
-        <v>3.84</v>
+        <v>198.98</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -4832,14 +4828,14 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Data:28/12/2021 NFE:000071842-</t>
+          <t>Data:19/01/2022 NFE:000072171-</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="n">
@@ -4859,16 +4855,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>59492301</v>
+        <v>60099001</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PLTDC-UY-06C01</t>
+          <t>RAQBB-AR-01C01</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>PALETA OVI CONG -1,8VP CORD CHEFE</t>
+          <t>RAQUETE BOVINO CG. BLACK BULL</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4877,17 +4873,17 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="F69" t="n">
-        <v>196.6</v>
+        <v>4.85</v>
       </c>
       <c r="G69" t="n">
-        <v>198.98</v>
+        <v>4.98</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28/10/2023</t>
+          <t xml:space="preserve"> 01/08/2023</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -4896,14 +4892,14 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Data:19/01/2022 NFE:000072171-</t>
+          <t>Data:03/08/2022 NFE:000075849-</t>
         </is>
       </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
       <c r="M69" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="n">
@@ -4923,16 +4919,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>60099001</v>
+        <v>58406601</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>RAQBB-AR-01C01</t>
+          <t>SUD-2540</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>RAQUETE BOVINO CG. BLACK BULL</t>
+          <t>T BONE (PORCIONADO 0,9KG CONG CP</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -4941,17 +4937,17 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>4.85</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="G70" t="n">
-        <v>4.98</v>
+        <v>0.72</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/08/2023</t>
+          <t xml:space="preserve"> 30/12/2022</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -4960,7 +4956,7 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Data:03/08/2022 NFE:000075849-</t>
+          <t>Data:08/02/2021 NFE:000066029-</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -4969,7 +4965,11 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>#2463# FORT 1054</t>
+        </is>
+      </c>
       <c r="O70" t="n">
         <v>0</v>
       </c>

--- a/excel/SaldoProdPF.xlsx
+++ b/excel/SaldoProdPF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -787,16 +787,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>58634602</v>
+        <v>59237801</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SUD-7117</t>
+          <t>FLIFE-BR-04C01</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">POLVO NAC TEN SCL VC 700G PREMIUM </t>
+          <t>FILE DE LINGUADO S/PL 0,5KG CG FRESCATTO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -805,17 +805,17 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F6" t="n">
-        <v>41.3</v>
+        <v>27</v>
       </c>
       <c r="G6" t="n">
-        <v>49.56</v>
+        <v>29.16</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 17/03/2023</t>
+          <t xml:space="preserve"> 01/07/2023</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -824,28 +824,28 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Data:17/04/2021 NFE:000067177-</t>
+          <t>Data:08/11/2021 NFE:000070694-</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>#2510# FRES 1157</t>
+          <t>#2758# FRES 1527</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>0.009999999776482582</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.009999999776482582</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.009999999776482582</v>
+        <v>0</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -855,16 +855,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>59474001</v>
+        <v>58634602</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PICBB-AR-01C01</t>
+          <t>SUD-7117</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PICANHA BOVINA A CONG. BLACK BULL</t>
+          <t xml:space="preserve">POLVO NAC TEN SCL VC 700G PREMIUM </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -873,17 +873,17 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="F7" t="n">
-        <v>6.68</v>
+        <v>41.3</v>
       </c>
       <c r="G7" t="n">
-        <v>6.77</v>
+        <v>49.56</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10/05/2023</t>
+          <t xml:space="preserve"> 17/03/2023</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -892,24 +892,28 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Data:17/01/2022 NFE:000072090-</t>
+          <t>Data:17/04/2021 NFE:000067177-</t>
         </is>
       </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>59</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>#2510# FRES 1157</t>
+        </is>
+      </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.009999999776482582</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.009999999776482582</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.009999999776482582</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -919,7 +923,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>60098501</v>
+        <v>59474001</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -937,17 +941,17 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>3.77</v>
+        <v>6.68</v>
       </c>
       <c r="G8" t="n">
-        <v>3.83</v>
+        <v>6.77</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30/06/2023</t>
+          <t xml:space="preserve"> 10/05/2023</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -956,7 +960,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Data:03/08/2022 NFE:000075937-</t>
+          <t>Data:17/01/2022 NFE:000072090-</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -983,7 +987,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>60098401</v>
+        <v>60098501</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1001,17 +1005,17 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>51.885</v>
+        <v>3.77</v>
       </c>
       <c r="G9" t="n">
-        <v>52.68</v>
+        <v>3.83</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/09/2023</t>
+          <t xml:space="preserve"> 30/06/2023</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1020,14 +1024,14 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Data:03/08/2022 NFE:000075850-</t>
+          <t>Data:03/08/2022 NFE:000075937-</t>
         </is>
       </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
@@ -1047,16 +1051,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>59491001</v>
+        <v>60098401</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PICFG-AR-01C01</t>
+          <t>PICBB-AR-01C01</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PICANHA BOV A CG 0,6-0,9KG FRIGOLAR</t>
+          <t>PICANHA BOVINA A CONG. BLACK BULL</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1065,17 +1069,17 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="F10" t="n">
-        <v>91.815</v>
+        <v>51.885</v>
       </c>
       <c r="G10" t="n">
-        <v>92.31999999999999</v>
+        <v>52.68</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/01/2023</t>
+          <t xml:space="preserve"> 03/09/2023</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1084,14 +1088,14 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Data:19/01/2022 NFE:000072218-</t>
+          <t>Data:03/08/2022 NFE:000075850-</t>
         </is>
       </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
@@ -1111,16 +1115,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>59492101</v>
+        <v>59491001</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PICFG-AR-01C02</t>
+          <t>PICFG-AR-01C01</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PICANHA BOV A CG 0,9-1,3 KG FRIGOLAR</t>
+          <t>PICANHA BOV A CG 0,6-0,9KG FRIGOLAR</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1129,17 +1133,17 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="F11" t="n">
-        <v>55.65</v>
+        <v>91.815</v>
       </c>
       <c r="G11" t="n">
-        <v>55.87</v>
+        <v>92.31999999999999</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24/12/2022</t>
+          <t xml:space="preserve"> 03/01/2023</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1155,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
@@ -1175,16 +1179,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>59827601</v>
+        <v>59492101</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PICLM-UY-03C04</t>
+          <t>PICFG-AR-01C02</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PICANHA BOV ANG CG 0,9-1,3KG LAS MORAS</t>
+          <t>PICANHA BOV A CG 0,9-1,3 KG FRIGOLAR</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1193,17 +1197,17 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F12" t="n">
-        <v>36.434</v>
+        <v>55.65</v>
       </c>
       <c r="G12" t="n">
-        <v>36.69</v>
+        <v>55.87</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 16/03/2024</t>
+          <t xml:space="preserve"> 24/12/2022</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1212,7 +1216,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Data:29/04/2022 NFE:000073956-</t>
+          <t>Data:19/01/2022 NFE:000072218-</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -1239,7 +1243,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>59827701</v>
+        <v>59827601</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1257,17 +1261,17 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F13" t="n">
-        <v>20.576</v>
+        <v>36.434</v>
       </c>
       <c r="G13" t="n">
-        <v>20.72</v>
+        <v>36.69</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 17/03/2024</t>
+          <t xml:space="preserve"> 16/03/2024</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1276,7 +1280,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Data:29/04/2022 NFE:000073947-</t>
+          <t>Data:29/04/2022 NFE:000073956-</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -1303,16 +1307,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>59122612</v>
+        <v>59827701</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PICPD-UY-07C03</t>
+          <t>PICLM-UY-03C04</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PICANHA BOV A CG. 0,9-1,4KG - VILA</t>
+          <t>PICANHA BOV ANG CG 0,9-1,3KG LAS MORAS</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1321,17 +1325,17 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="F14" t="n">
-        <v>187.27</v>
+        <v>20.576</v>
       </c>
       <c r="G14" t="n">
-        <v>188.06</v>
+        <v>20.72</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 21/07/2023</t>
+          <t xml:space="preserve"> 17/03/2024</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1340,20 +1344,16 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Data:01/10/2021 NFE:000070015-</t>
+          <t>Data:29/04/2022 NFE:000073947-</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>#2761# JBSS 1277</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
         <v>0</v>
       </c>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>59491301</v>
+        <v>59122612</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1389,17 +1389,17 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="F15" t="n">
-        <v>177.195</v>
+        <v>187.27</v>
       </c>
       <c r="G15" t="n">
-        <v>177.88</v>
+        <v>188.06</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 13/10/2023</t>
+          <t xml:space="preserve"> 21/07/2023</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1408,7 +1408,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Data:19/01/2022 NFE:000072218-</t>
+          <t>Data:01/10/2021 NFE:000070015-</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1417,7 +1417,11 @@
       <c r="M15" t="n">
         <v>4</v>
       </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>#2761# JBSS 1277</t>
+        </is>
+      </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
@@ -1434,19 +1438,17 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>60307401 *</t>
-        </is>
+      <c r="A16" t="n">
+        <v>59491301</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PICPI-AR-01C02</t>
+          <t>PICPD-UY-07C03</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PICANHA BOV A CG 0,9-1,3 KG - PICO</t>
+          <t>PICANHA BOV A CG. 0,9-1,4KG - VILA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1455,17 +1457,17 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="F16" t="n">
-        <v>0.985</v>
+        <v>177.195</v>
       </c>
       <c r="G16" t="n">
-        <v>0.99</v>
+        <v>177.88</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05/04/2023</t>
+          <t xml:space="preserve"> 13/10/2023</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1474,12 +1476,14 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Data:10/10/2022 NFE:-</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
+          <t>Data:19/01/2022 NFE:000072218-</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="n">
@@ -1498,8 +1502,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>60098601</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>60307401 *</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1517,17 +1523,17 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>3.325</v>
+        <v>0.985</v>
       </c>
       <c r="G17" t="n">
-        <v>3.34</v>
+        <v>0.99</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 08/05/2023</t>
+          <t xml:space="preserve"> 05/04/2023</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1536,12 +1542,10 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Data:03/08/2022 NFE:000075904-</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
+          <t>Data:10/10/2022 NFE:-</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1563,16 +1567,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>59492601</v>
+        <v>60098601</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FCCCR-BR-04C01</t>
+          <t>PICPI-AR-01C02</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FILE COSTELA BOV C/OSSO CG CARA PRETA</t>
+          <t>PICANHA BOV A CG 0,9-1,3 KG - PICO</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1581,17 +1585,17 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>54.375</v>
+        <v>3.325</v>
       </c>
       <c r="G18" t="n">
-        <v>55.31</v>
+        <v>3.34</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10/08/2023</t>
+          <t xml:space="preserve"> 08/05/2023</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1600,14 +1604,14 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Data:19/01/2022 NFE:000072154-</t>
+          <t>Data:03/08/2022 NFE:000075904-</t>
         </is>
       </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
@@ -1627,16 +1631,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>58983802</v>
+        <v>59492601</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FCCCR-BR-05C01</t>
+          <t>FCCCR-BR-04C01</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FILE DE COSTELA BOV C/OSSO CARA PRETA</t>
+          <t>FILE COSTELA BOV C/OSSO CG CARA PRETA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1645,17 +1649,17 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="F19" t="n">
-        <v>20.299</v>
+        <v>54.375</v>
       </c>
       <c r="G19" t="n">
-        <v>20.915</v>
+        <v>55.31</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29/03/2023</t>
+          <t xml:space="preserve"> 10/08/2023</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1664,20 +1668,16 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Data:16/08/2021 NFE:000069063-</t>
+          <t>Data:19/01/2022 NFE:000072154-</t>
         </is>
       </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>#2711# CARA 1382</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
         <v>0</v>
       </c>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>59122606</v>
+        <v>58983802</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1713,13 +1713,13 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F20" t="n">
-        <v>32.868</v>
+        <v>20.299</v>
       </c>
       <c r="G20" t="n">
-        <v>33.77</v>
+        <v>20.915</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Data:01/10/2021 NFE:000070015-</t>
+          <t>Data:16/08/2021 NFE:000069063-</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>#2765# CARA 1382</t>
+          <t>#2711# CARA 1382</t>
         </is>
       </c>
       <c r="O20" t="n">
@@ -1763,16 +1763,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>59474201</v>
+        <v>59122606</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FCOBB-AR-01C02</t>
+          <t>FCCCR-BR-05C01</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>FILE COSTELA BOV CG. 0,8-1,2KG  B. BULL</t>
+          <t>FILE DE COSTELA BOV C/OSSO CARA PRETA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1781,17 +1781,17 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="F21" t="n">
-        <v>137.95</v>
+        <v>32.868</v>
       </c>
       <c r="G21" t="n">
-        <v>139.48</v>
+        <v>33.77</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11/05/2023</t>
+          <t xml:space="preserve"> 29/03/2023</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1800,16 +1800,20 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Data:17/01/2022 NFE:000072090-</t>
+          <t>Data:01/10/2021 NFE:000070015-</t>
         </is>
       </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>#2765# CARA 1382</t>
+        </is>
+      </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
@@ -1827,7 +1831,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>60098801</v>
+        <v>59474201</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1845,17 +1849,17 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="F22" t="n">
-        <v>78.44499999999999</v>
+        <v>137.95</v>
       </c>
       <c r="G22" t="n">
-        <v>79.33</v>
+        <v>139.48</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 22/08/2023</t>
+          <t xml:space="preserve"> 11/05/2023</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1864,14 +1868,14 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Data:03/08/2022 NFE:000075908-</t>
+          <t>Data:17/01/2022 NFE:000072090-</t>
         </is>
       </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="n">
@@ -1891,7 +1895,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>60098901</v>
+        <v>60098801</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1909,17 +1913,17 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="F23" t="n">
-        <v>42.42</v>
+        <v>78.44499999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>42.93</v>
+        <v>79.33</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23/08/2023</t>
+          <t xml:space="preserve"> 22/08/2023</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1928,14 +1932,14 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Data:04/08/2022 NFE:000075998-</t>
+          <t>Data:03/08/2022 NFE:000075908-</t>
         </is>
       </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="n">
@@ -1955,16 +1959,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>59492201</v>
+        <v>60098901</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FCOIF-UY-03C01</t>
+          <t>FCOBB-AR-01C02</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>FILE DE COSTELA BOV CG 0,7-1,4 KG IF</t>
+          <t>FILE COSTELA BOV CG. 0,8-1,2KG  B. BULL</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1973,17 +1977,17 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="F24" t="n">
-        <v>98.94</v>
+        <v>42.42</v>
       </c>
       <c r="G24" t="n">
-        <v>99.81999999999999</v>
+        <v>42.93</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05/08/2023</t>
+          <t xml:space="preserve"> 23/08/2023</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1992,14 +1996,14 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Data:19/01/2022 NFE:000072199-</t>
+          <t>Data:04/08/2022 NFE:000075998-</t>
         </is>
       </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="n">
@@ -2019,16 +2023,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>60013403</v>
+        <v>59492201</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FCOOP-AR-01C01</t>
+          <t>FCOIF-UY-03C01</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>FILE DE COSTELA BOV CONG OHRA PAMPA</t>
+          <t>FILE DE COSTELA BOV CG 0,7-1,4 KG IF</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2037,17 +2041,17 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="F25" t="n">
-        <v>16.39</v>
+        <v>98.94</v>
       </c>
       <c r="G25" t="n">
-        <v>16.48</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04/08/2023</t>
+          <t xml:space="preserve"> 05/08/2023</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2056,14 +2060,14 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Data:05/07/2022 NFE:000075301-</t>
+          <t>Data:19/01/2022 NFE:000072199-</t>
         </is>
       </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="n">
@@ -2083,16 +2087,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>59491901</v>
+        <v>60013403</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FCOPD-UY-07C01</t>
+          <t>FCOOP-AR-01C01</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>FILE DE COSTELA BOV CG. 0,9-1,4KG VILA</t>
+          <t>FILE DE COSTELA BOV CONG OHRA PAMPA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2101,17 +2105,17 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="F26" t="n">
-        <v>143.275</v>
+        <v>16.39</v>
       </c>
       <c r="G26" t="n">
-        <v>143.91</v>
+        <v>16.48</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04/12/2023</t>
+          <t xml:space="preserve"> 04/08/2023</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2120,14 +2124,14 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Data:19/01/2022 NFE:000072218-</t>
+          <t>Data:05/07/2022 NFE:000075301-</t>
         </is>
       </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="n">
@@ -2147,7 +2151,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>60377101</v>
+        <v>59491901</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2165,13 +2169,13 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="F27" t="n">
-        <v>7.711</v>
+        <v>143.275</v>
       </c>
       <c r="G27" t="n">
-        <v>7.809</v>
+        <v>143.91</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2184,14 +2188,14 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Data:01/11/2022 NFE:000077628-</t>
+          <t>Data:19/01/2022 NFE:000072218-</t>
         </is>
       </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="n">
@@ -2211,7 +2215,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>60306801</v>
+        <v>60377101</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2229,17 +2233,17 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>7.976</v>
+        <v>7.711</v>
       </c>
       <c r="G28" t="n">
-        <v>8.34</v>
+        <v>7.809</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 27/07/2024</t>
+          <t xml:space="preserve"> 04/12/2023</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2248,7 +2252,7 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Data:10/10/2022 NFE:000077126-</t>
+          <t>Data:01/11/2022 NFE:000077628-</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -2275,7 +2279,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>60384501</v>
+        <v>60306801</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2293,13 +2297,13 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="F29" t="n">
-        <v>40.43</v>
+        <v>7.976</v>
       </c>
       <c r="G29" t="n">
-        <v>42.39</v>
+        <v>8.34</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2312,14 +2316,14 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Data:04/11/2022 NFE:000077746-</t>
+          <t>Data:10/10/2022 NFE:000077126-</t>
         </is>
       </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
@@ -2339,16 +2343,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>59474101</v>
+        <v>60384501</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CFIBB-AR-01C01</t>
+          <t>FCOPD-UY-07C01</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CONTRA FILE BOV. CG. 0,8-1,2KG BLACK BUL</t>
+          <t>FILE DE COSTELA BOV CG. 0,9-1,4KG VILA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2357,17 +2361,17 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="F30" t="n">
-        <v>23.695</v>
+        <v>40.43</v>
       </c>
       <c r="G30" t="n">
-        <v>23.98</v>
+        <v>42.39</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11/05/2023</t>
+          <t xml:space="preserve"> 27/07/2024</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2376,14 +2380,14 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Data:17/01/2022 NFE:000072090-</t>
+          <t>Data:04/11/2022 NFE:000077746-</t>
         </is>
       </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="n">
@@ -2403,7 +2407,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>60162901</v>
+        <v>59474101</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2421,17 +2425,17 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F31" t="n">
-        <v>4.19</v>
+        <v>23.695</v>
       </c>
       <c r="G31" t="n">
-        <v>4.25</v>
+        <v>23.98</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14/09/2023</t>
+          <t xml:space="preserve"> 11/05/2023</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2440,7 +2444,7 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Data:24/08/2022 NFE:000076228-</t>
+          <t>Data:17/01/2022 NFE:000072090-</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -2467,16 +2471,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>60013401</v>
+        <v>60162901</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CFIOP-AR-01C01</t>
+          <t>CFIBB-AR-01C01</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CONTRA FILE BOV PORC CONG OHRA PAMPA</t>
+          <t>CONTRA FILE BOV. CG. 0,8-1,2KG BLACK BUL</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2485,26 +2489,26 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
-        <v>9.025</v>
+        <v>4.19</v>
       </c>
       <c r="G32" t="n">
-        <v>9.07</v>
+        <v>4.25</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04/08/2023</t>
+          <t xml:space="preserve"> 14/09/2023</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Data:05/07/2022 NFE:000075301-</t>
+          <t>Data:24/08/2022 NFE:000076228-</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -2531,16 +2535,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>60013402</v>
+        <v>60013401</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CFIOP-AR-01C02</t>
+          <t>CFIOP-AR-01C01</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CONTRA FILE BOV C/OSSO PORC OHRA PAMPA</t>
+          <t>CONTRA FILE BOV PORC CONG OHRA PAMPA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2552,10 +2556,10 @@
         <v>9</v>
       </c>
       <c r="F33" t="n">
-        <v>8.025</v>
+        <v>9.025</v>
       </c>
       <c r="G33" t="n">
-        <v>8.07</v>
+        <v>9.07</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2572,7 +2576,7 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
@@ -2595,16 +2599,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>60384601</v>
+        <v>60013402</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CFIPD-UY-07C01</t>
+          <t>CFIOP-AR-01C02</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CONTRA FILE BOV PORC CG VILA</t>
+          <t>CONTRA FILE BOV C/OSSO PORC OHRA PAMPA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2613,33 +2617,33 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F34" t="n">
-        <v>41.21</v>
+        <v>8.025</v>
       </c>
       <c r="G34" t="n">
-        <v>43.17</v>
+        <v>8.07</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 26/07/2024</t>
+          <t xml:space="preserve"> 04/08/2023</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Data:04/11/2022 NFE:000077745-</t>
+          <t>Data:05/07/2022 NFE:000075301-</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="n">
@@ -2659,7 +2663,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>60306901</v>
+        <v>60384601</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2677,17 +2681,17 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="F35" t="n">
-        <v>8.718</v>
+        <v>41.21</v>
       </c>
       <c r="G35" t="n">
-        <v>9.082000000000001</v>
+        <v>43.17</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28/07/2024</t>
+          <t xml:space="preserve"> 26/07/2024</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -2696,14 +2700,14 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Data:10/10/2022 NFE:000077125-</t>
+          <t>Data:04/11/2022 NFE:000077745-</t>
         </is>
       </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="n">
@@ -2723,16 +2727,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>60214201</v>
+        <v>60306901</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CFIPI-AR-01C01</t>
+          <t>CFIPD-UY-07C01</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CONTRA FILE CG EM TIRAS - PICO</t>
+          <t>CONTRA FILE BOV PORC CG VILA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2741,17 +2745,17 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F36" t="n">
-        <v>21.09</v>
+        <v>8.718</v>
       </c>
       <c r="G36" t="n">
-        <v>21.47</v>
+        <v>9.082000000000001</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 09/09/2023</t>
+          <t xml:space="preserve"> 28/07/2024</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -2760,7 +2764,7 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Data:13/09/2022 NFE:000076559-</t>
+          <t>Data:10/10/2022 NFE:000077125-</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -2787,7 +2791,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>60214301</v>
+        <v>60214201</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2805,13 +2809,13 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F37" t="n">
-        <v>9.18</v>
+        <v>21.09</v>
       </c>
       <c r="G37" t="n">
-        <v>9.359999999999999</v>
+        <v>21.47</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2824,11 +2828,11 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Data:13/09/2022 NFE:000076558-</t>
+          <t>Data:13/09/2022 NFE:000076559-</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
@@ -2851,16 +2855,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>59122601</v>
+        <v>60214301</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ACCCR-BR-04C01</t>
+          <t>CFIPI-AR-01C01</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ACEM C/OSSO CG CARA PRETA</t>
+          <t>CONTRA FILE CG EM TIRAS - PICO</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2869,17 +2873,17 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="F38" t="n">
-        <v>48.48</v>
+        <v>9.18</v>
       </c>
       <c r="G38" t="n">
-        <v>50.28</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 20/08/2023</t>
+          <t xml:space="preserve"> 09/09/2023</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -2888,20 +2892,16 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Data:01/10/2021 NFE:000070015-</t>
+          <t>Data:13/09/2022 NFE:000076558-</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>#2769# CARA 1443</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="n">
         <v>0</v>
       </c>
@@ -2919,16 +2919,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>59122602</v>
+        <v>58406601</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ATICR-BR-04C01</t>
+          <t>SUD-2540</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ASSADO DE TIRA BOV CG CARA PRETA</t>
+          <t>T BONE (PORCIONADO 0,9KG CONG CP</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2940,14 +2940,14 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.672</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11/06/2023</t>
+          <t xml:space="preserve"> 30/12/2022</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -2956,7 +2956,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Data:01/10/2021 NFE:000070015-</t>
+          <t>Data:08/02/2021 NFE:000066029-</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>#2769# CARA 1443</t>
+          <t>#2463# FORT 1054</t>
         </is>
       </c>
       <c r="O39" t="n">
@@ -2987,16 +2987,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>59416102</v>
+        <v>59491101</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ATICR-BR-04C01</t>
+          <t>TBOCR-BR-04C01</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ASSADO DE TIRA BOV CG CARA PRETA</t>
+          <t>TIBONE BOV CG CARA PRETA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3005,17 +3005,17 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F40" t="n">
-        <v>25.442</v>
+        <v>40.565</v>
       </c>
       <c r="G40" t="n">
-        <v>26</v>
+        <v>41.12</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14/08/2023</t>
+          <t xml:space="preserve"> 10/09/2023</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3024,14 +3024,14 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Data:28/12/2021 NFE:000071842-</t>
+          <t>Data:19/01/2022 NFE:000072154-</t>
         </is>
       </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="n">
@@ -3051,16 +3051,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>59492401</v>
+        <v>60013404</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ATICR-BR-04C01</t>
+          <t>TBOOP-AR-01C01</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ASSADO DE TIRA BOV CG CARA PRETA</t>
+          <t>TIBONE BOV CONG OHRA PAMPA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3069,17 +3069,17 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="F41" t="n">
-        <v>82.166</v>
+        <v>7.315</v>
       </c>
       <c r="G41" t="n">
-        <v>83.93000000000001</v>
+        <v>7.34</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14/08/2023</t>
+          <t xml:space="preserve"> 04/08/2023</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3088,14 +3088,14 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Data:19/01/2022 NFE:000072218-</t>
+          <t>Data:05/07/2022 NFE:000075301-</t>
         </is>
       </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="n">
@@ -3108,2006 +3108,6 @@
         <v>0</v>
       </c>
       <c r="R41" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>60307001</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>ATIPD-UY-07C01</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>ASSADO DE TIRA BOV CG VILA</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>4</v>
-      </c>
-      <c r="F42" t="n">
-        <v>6.696</v>
-      </c>
-      <c r="G42" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 27/07/2024</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>14</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Data:10/10/2022 NFE:000077127-</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>60385101</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>ATIPD-UY-07C01</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>ASSADO DE TIRA BOV CG VILA</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>40</v>
-      </c>
-      <c r="F43" t="n">
-        <v>77.04000000000001</v>
-      </c>
-      <c r="G43" t="n">
-        <v>77.88</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 27/07/2024</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>14</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Data:04/11/2022 NFE:000077744-</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>2</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>60181101</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>BAR19-BR-04C01</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>BARRIGA SUINA CONG - 1953</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>20</v>
-      </c>
-      <c r="F44" t="n">
-        <v>20.41</v>
-      </c>
-      <c r="G44" t="n">
-        <v>20.61</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 10/12/2022</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>14</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Data:30/08/2022 NFE:000076313-</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>60377201</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>BBMFR-BR-05C01</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BOMBOM DA ALCATRA BOV CG NV </t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>65</v>
-      </c>
-      <c r="F45" t="n">
-        <v>55.565</v>
-      </c>
-      <c r="G45" t="n">
-        <v>56.28</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 07/06/2024</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>14</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Data:01/11/2022 NFE:000077636-</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="n">
-        <v>3</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>59492501</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>CARDC-UY-06C01</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>CARRE FRANCES OVI CG 8/20 VP CORD CHEFE</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>164</v>
-      </c>
-      <c r="F46" t="n">
-        <v>193.77</v>
-      </c>
-      <c r="G46" t="n">
-        <v>195.574</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 18/10/2023</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>14</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Data:19/01/2022 NFE:000072154-</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="n">
-        <v>7</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>59392503</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>CARDC-UY-06C01</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>CARRE FRANCES OVI CG 8/20 VP CORD CHEFE</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>2</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="G47" t="n">
-        <v>2.202</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 01/11/2023</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>11</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Data:21/12/2021 NFE:000071791-</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>60355601</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>CFRPO-AR-01C01</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>CORACAO DE FRANGO POLLOLIN CG 10X1 KG</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>10</v>
-      </c>
-      <c r="F48" t="n">
-        <v>10</v>
-      </c>
-      <c r="G48" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 10/11/2023</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>14</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Data:25/10/2022 NFE:000077475-</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>59122605</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>COSPD-UY-07C01</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>COSTELA BOV DIANTEIRO JANELA CG. VILA</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1.525</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 16/07/2023</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>14</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Data:01/10/2021 NFE:000070015-</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>#2761# JBSS 1277</t>
-        </is>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>59492001</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>COSPD-UY-07C01</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>COSTELA BOV DIANTEIRO JANELA CG. VILA</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>86</v>
-      </c>
-      <c r="F50" t="n">
-        <v>156.61</v>
-      </c>
-      <c r="G50" t="n">
-        <v>157.04</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 19/10/2023</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>14</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Data:19/01/2022 NFE:000072171-</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="n">
-        <v>3</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0</v>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>59237801</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>FLIFE-BR-04C01</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>FILE DE LINGUADO S/PL 0,5KG CG FRESCATTO</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>54</v>
-      </c>
-      <c r="F51" t="n">
-        <v>27</v>
-      </c>
-      <c r="G51" t="n">
-        <v>29.16</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 01/07/2023</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>14</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Data:08/11/2021 NFE:000070694-</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>#2758# FRES 1527</t>
-        </is>
-      </c>
-      <c r="O51" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>60070001</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>FMIBC-BR-05C01</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>FILE MIGNON BOV CG 1,3-1,8 KG -BOA CARNE</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>25</v>
-      </c>
-      <c r="F52" t="n">
-        <v>45.56</v>
-      </c>
-      <c r="G52" t="n">
-        <v>45.81</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 21/05/2023</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>14</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Data:25/07/2022 NFE:000075690-</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>60099101</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>FMIBC-BR-05C01</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>FILE MIGNON BOV CG 1,3-1,8 KG -BOA CARNE</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>15</v>
-      </c>
-      <c r="F53" t="n">
-        <v>28</v>
-      </c>
-      <c r="G53" t="n">
-        <v>28.15</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 11/07/2023</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>14</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Data:03/08/2022 NFE:000075848-</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>0</v>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>59492801</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>FRDCR-BR-04C01</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>FRALDA DO DIAFRAGMA BOV CG CARA PRETA</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>108</v>
-      </c>
-      <c r="F54" t="n">
-        <v>97.41</v>
-      </c>
-      <c r="G54" t="n">
-        <v>98.48999999999999</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 05/01/2024</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>14</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Data:19/01/2022 NFE:000072218-</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="n">
-        <v>2</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="n">
-        <v>0</v>
-      </c>
-      <c r="P54" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>0</v>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>59868101</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>FRDCR-BR-04C01</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>FRALDA DO DIAFRAGMA BOV CG CARA PRETA</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>19</v>
-      </c>
-      <c r="F55" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="G55" t="n">
-        <v>13.85</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 16/03/2024</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>14</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Data:12/05/2022 NFE:000074244-</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>0</v>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>59478901</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>FRSIF-UY-03C01</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>FRALDA BOV S/ GORD CG - IF</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>139</v>
-      </c>
-      <c r="F56" t="n">
-        <v>116.243</v>
-      </c>
-      <c r="G56" t="n">
-        <v>118.05</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 05/08/2023</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>14</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Data:17/01/2022 NFE:000072123-</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="n">
-        <v>4</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>0</v>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>59122609</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>FRSPD-UY-07C01</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>FRALDA BOV S/GORD CG VILA</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>2</v>
-      </c>
-      <c r="F57" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="G57" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 16/07/2023</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>14</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Data:01/10/2021 NFE:000070015-</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>#2761# JBSS 1277</t>
-        </is>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>59491401</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>FRSPD-UY-07C01</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>FRALDA BOV S/GORD CG VILA</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>147</v>
-      </c>
-      <c r="F58" t="n">
-        <v>164.065</v>
-      </c>
-      <c r="G58" t="n">
-        <v>164.8</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 03/12/2023</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>14</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Data:19/01/2022 NFE:000072218-</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="n">
-        <v>4</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>60308001</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>FRSPD-UY-07C02</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>FRALDA BOV S/ GORD PORC CG VILA</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>26</v>
-      </c>
-      <c r="F59" t="n">
-        <v>12.314</v>
-      </c>
-      <c r="G59" t="n">
-        <v>12.86</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 01/09/2024</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>14</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Data:10/10/2022 NFE:000077124-</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>0</v>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>60385001</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>FRSPD-UY-07C02</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>FRALDA BOV S/ GORD PORC CG VILA</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>140</v>
-      </c>
-      <c r="F60" t="n">
-        <v>73.28</v>
-      </c>
-      <c r="G60" t="n">
-        <v>76.22</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 01/09/2024</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>14</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Data:04/11/2022 NFE:000077707-</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="n">
-        <v>0</v>
-      </c>
-      <c r="P60" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>0</v>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>59485301</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>LINSB-UY-03C03</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>LINGUICA MISTA C/QJO CHEDDAR BARB CG SAR</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>2</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 16/11/2022</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
-        <v>14</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Data:18/01/2022 NFE:000072154-</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>0</v>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>60069801</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>MACBB-AR-01C01</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>MIOLO DE ACEM BOV. CG. BLACK BULL</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>11</v>
-      </c>
-      <c r="F62" t="n">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="G62" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 01/08/2023</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>14</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Data:25/07/2022 NFE:000075695-</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="n">
-        <v>0</v>
-      </c>
-      <c r="P62" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>0</v>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>59490901</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>MALBB-AR-01C01</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>MIOLO DE ALCATRA BOV. CG. BLACK BULL</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>36</v>
-      </c>
-      <c r="F63" t="n">
-        <v>72.83</v>
-      </c>
-      <c r="G63" t="n">
-        <v>73.19</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 15/05/2023</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>14</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Data:19/01/2022 NFE:000072199-</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="n">
-        <v>0</v>
-      </c>
-      <c r="P63" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>0</v>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>59827801</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>MAMLM-UY-03C02</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>MAMINHA BOV ANG CG LAS MORAS</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>45</v>
-      </c>
-      <c r="F64" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="G64" t="n">
-        <v>51.16</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25/03/2024</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>14</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Data:29/04/2022 NFE:000073954-</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0</v>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>59827901</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>MAMLM-UY-03C02</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>MAMINHA BOV ANG CG LAS MORAS</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>22</v>
-      </c>
-      <c r="F65" t="n">
-        <v>24.564</v>
-      </c>
-      <c r="G65" t="n">
-        <v>24.828</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 28/03/2024</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>14</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>Data:29/04/2022 NFE:000073955-</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="n">
-        <v>0</v>
-      </c>
-      <c r="P65" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>0</v>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>59880801</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>MAMPI-AR-01C01</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>MAMINHA BOV CONG PICO</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>11</v>
-      </c>
-      <c r="F66" t="n">
-        <v>9.935</v>
-      </c>
-      <c r="G66" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 08/08/2023</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>14</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Data:17/05/2022 NFE:000074371-</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="n">
-        <v>0</v>
-      </c>
-      <c r="P66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>0</v>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>59416107</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>PLTDC-UY-06C01</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>PALETA OVI CONG -1,8VP CORD CHEFE</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>2</v>
-      </c>
-      <c r="F67" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="G67" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 28/10/2023</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>14</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>Data:28/12/2021 NFE:000071842-</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>2</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="n">
-        <v>0</v>
-      </c>
-      <c r="P67" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>0</v>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>59492301</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>PLTDC-UY-06C01</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>PALETA OVI CONG -1,8VP CORD CHEFE</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>119</v>
-      </c>
-      <c r="F68" t="n">
-        <v>196.6</v>
-      </c>
-      <c r="G68" t="n">
-        <v>198.98</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 28/10/2023</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>14</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>Data:19/01/2022 NFE:000072171-</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="n">
-        <v>5</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="n">
-        <v>0</v>
-      </c>
-      <c r="P68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>0</v>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>60099001</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>RAQBB-AR-01C01</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>RAQUETE BOVINO CG. BLACK BULL</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>13</v>
-      </c>
-      <c r="F69" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="G69" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 01/08/2023</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>14</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>Data:03/08/2022 NFE:000075849-</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="n">
-        <v>0</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>0</v>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>58406601</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>SUD-2540</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>T BONE (PORCIONADO 0,9KG CONG CP</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>1</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0.6919999999999999</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30/12/2022</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>14</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>Data:08/02/2021 NFE:000066029-</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>#2463# FORT 1054</t>
-        </is>
-      </c>
-      <c r="O70" t="n">
-        <v>0</v>
-      </c>
-      <c r="P70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>0</v>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>59491101</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>TBOCR-BR-04C01</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>TIBONE BOV CG CARA PRETA</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>37</v>
-      </c>
-      <c r="F71" t="n">
-        <v>40.565</v>
-      </c>
-      <c r="G71" t="n">
-        <v>41.12</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 10/09/2023</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>14</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>Data:19/01/2022 NFE:000072154-</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="n">
-        <v>37</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="n">
-        <v>0</v>
-      </c>
-      <c r="P71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>0</v>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>60013404</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>TBOOP-AR-01C01</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>TIBONE BOV CONG OHRA PAMPA</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>5</v>
-      </c>
-      <c r="F72" t="n">
-        <v>7.315</v>
-      </c>
-      <c r="G72" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 04/08/2023</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>14</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Data:05/07/2022 NFE:000075301-</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="n">
-        <v>0</v>
-      </c>
-      <c r="P72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>0</v>
-      </c>
-      <c r="R72" t="inlineStr">
         <is>
           <t>2223 - SUDAMBEEF KIT</t>
         </is>

--- a/excel/SaldoProdPF.xlsx
+++ b/excel/SaldoProdPF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,47 +481,12 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Valor</t>
+          <t>Motivo</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Motivo</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Referencia</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Pallet</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
           <t>Marca</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Altura Master</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Largura Master</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Profundidade</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Cliente</t>
         </is>
       </c>
     </row>
@@ -561,33 +526,12 @@
       <c r="I2" t="n">
         <v>23</v>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Data:28/03/2022 NFE:000073343-</t>
         </is>
       </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -625,33 +569,12 @@
       <c r="I3" t="n">
         <v>14</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Data:29/08/2022 NFE:000076271-</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -689,33 +612,12 @@
       <c r="I4" t="n">
         <v>23</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>Data:13/09/2022 NFE:000076506-</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -753,35 +655,14 @@
       <c r="I5" t="n">
         <v>14</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Data:08/11/2021 NFE:000070694-</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Data:08/11/2021 NFE:000070694-</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
           <t>#2758# FRES 1527</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
         </is>
       </c>
     </row>
@@ -821,35 +702,14 @@
       <c r="I6" t="n">
         <v>14</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Data:08/11/2021 NFE:000070694-</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Data:08/11/2021 NFE:000070694-</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
           <t>#2758# FRES 1527</t>
-        </is>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
         </is>
       </c>
     </row>
@@ -889,35 +749,14 @@
       <c r="I7" t="n">
         <v>14</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Data:17/04/2021 NFE:000067177-</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Data:17/04/2021 NFE:000067177-</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>59</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
           <t>#2510# FRES 1157</t>
-        </is>
-      </c>
-      <c r="O7" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
         </is>
       </c>
     </row>
@@ -957,33 +796,12 @@
       <c r="I8" t="n">
         <v>14</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>Data:17/01/2022 NFE:000072090-</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1021,33 +839,12 @@
       <c r="I9" t="n">
         <v>14</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>Data:03/08/2022 NFE:000075937-</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1085,33 +882,12 @@
       <c r="I10" t="n">
         <v>14</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>Data:03/08/2022 NFE:000075850-</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>2</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1149,33 +925,12 @@
       <c r="I11" t="n">
         <v>14</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>Data:19/01/2022 NFE:000072218-</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>101</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1213,33 +968,12 @@
       <c r="I12" t="n">
         <v>14</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>Data:19/01/2022 NFE:000072218-</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1277,33 +1011,12 @@
       <c r="I13" t="n">
         <v>14</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>Data:29/04/2022 NFE:000073956-</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1341,33 +1054,12 @@
       <c r="I14" t="n">
         <v>14</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>Data:29/04/2022 NFE:000073947-</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1405,35 +1097,14 @@
       <c r="I15" t="n">
         <v>14</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Data:01/10/2021 NFE:000070015-</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Data:01/10/2021 NFE:000070015-</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
           <t>#2761# JBSS 1277</t>
-        </is>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
         </is>
       </c>
     </row>
@@ -1473,33 +1144,12 @@
       <c r="I16" t="n">
         <v>14</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>Data:19/01/2022 NFE:000072218-</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1539,31 +1189,12 @@
       <c r="I17" t="n">
         <v>14</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>Data:10/10/2022 NFE:-</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1601,33 +1232,12 @@
       <c r="I18" t="n">
         <v>14</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>Data:03/08/2022 NFE:000075904-</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1665,33 +1275,12 @@
       <c r="I19" t="n">
         <v>14</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>Data:19/01/2022 NFE:000072154-</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="n">
-        <v>2</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1729,35 +1318,14 @@
       <c r="I20" t="n">
         <v>14</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Data:16/08/2021 NFE:000069063-</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Data:16/08/2021 NFE:000069063-</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
           <t>#2711# CARA 1382</t>
-        </is>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
         </is>
       </c>
     </row>
@@ -1797,35 +1365,14 @@
       <c r="I21" t="n">
         <v>14</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Data:01/10/2021 NFE:000070015-</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Data:01/10/2021 NFE:000070015-</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
           <t>#2765# CARA 1382</t>
-        </is>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
         </is>
       </c>
     </row>
@@ -1865,33 +1412,12 @@
       <c r="I22" t="n">
         <v>14</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>Data:17/01/2022 NFE:000072090-</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="n">
-        <v>3</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1929,33 +1455,12 @@
       <c r="I23" t="n">
         <v>14</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>Data:03/08/2022 NFE:000075908-</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="n">
-        <v>2</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1993,33 +1498,12 @@
       <c r="I24" t="n">
         <v>14</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>Data:04/08/2022 NFE:000075998-</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2057,33 +1541,12 @@
       <c r="I25" t="n">
         <v>14</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>Data:19/01/2022 NFE:000072199-</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="n">
-        <v>3</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2121,33 +1584,12 @@
       <c r="I26" t="n">
         <v>14</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>Data:05/07/2022 NFE:000075301-</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2185,33 +1627,12 @@
       <c r="I27" t="n">
         <v>14</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>Data:19/01/2022 NFE:000072218-</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="n">
-        <v>4</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2249,33 +1670,12 @@
       <c r="I28" t="n">
         <v>14</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>Data:01/11/2022 NFE:000077628-</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2313,33 +1713,12 @@
       <c r="I29" t="n">
         <v>14</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>Data:10/10/2022 NFE:000077126-</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2377,33 +1756,12 @@
       <c r="I30" t="n">
         <v>14</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>Data:04/11/2022 NFE:000077746-</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="n">
-        <v>4</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2441,33 +1799,12 @@
       <c r="I31" t="n">
         <v>14</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>Data:17/01/2022 NFE:000072090-</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2505,33 +1842,12 @@
       <c r="I32" t="n">
         <v>14</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>Data:24/08/2022 NFE:000076228-</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2569,33 +1885,12 @@
       <c r="I33" t="n">
         <v>3</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>Data:05/07/2022 NFE:000075301-</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2633,33 +1928,12 @@
       <c r="I34" t="n">
         <v>3</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>Data:05/07/2022 NFE:000075301-</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>2</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2697,33 +1971,12 @@
       <c r="I35" t="n">
         <v>14</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>Data:04/11/2022 NFE:000077745-</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="n">
-        <v>4</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2761,33 +2014,12 @@
       <c r="I36" t="n">
         <v>14</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>Data:10/10/2022 NFE:000077125-</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2825,33 +2057,12 @@
       <c r="I37" t="n">
         <v>14</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>Data:13/09/2022 NFE:000076559-</t>
         </is>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2889,33 +2100,12 @@
       <c r="I38" t="n">
         <v>14</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>Data:13/09/2022 NFE:000076558-</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>2</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2953,35 +2143,14 @@
       <c r="I39" t="n">
         <v>14</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Data:08/02/2021 NFE:000066029-</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Data:08/02/2021 NFE:000066029-</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
           <t>#2463# FORT 1054</t>
-        </is>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
         </is>
       </c>
     </row>
@@ -3021,33 +2190,12 @@
       <c r="I40" t="n">
         <v>14</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>Data:19/01/2022 NFE:000072154-</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="n">
-        <v>37</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>2223-SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3085,33 +2233,12 @@
       <c r="I41" t="n">
         <v>14</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>Data:05/07/2022 NFE:000075301-</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>2223 - SUDAMBEEF KIT</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
